--- a/模型统计.xlsx
+++ b/模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="888">
   <si>
     <t>dt431</t>
   </si>
@@ -2651,6 +2651,33 @@
   </si>
   <si>
     <t>dt1399-装修-20190415-李总(天津)-2天</t>
+  </si>
+  <si>
+    <t>dt1416-电信-比亚迪a-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1417-电信-比亚迪b-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1418-电信-配资-20190418-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1419-电信-POS推广-20190418-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1420-电信-昌骏汽车-20190418-邢总(陕西省)-1天</t>
+  </si>
+  <si>
+    <t>dt1421-电信-成人教育-20190418-王总优化(湖南)-3天</t>
+  </si>
+  <si>
+    <t>dt1422-电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</t>
+  </si>
+  <si>
+    <t>dt1423-联通-POS-20190416-综合(全国)-1天-限量30000</t>
+  </si>
+  <si>
+    <t>dt1424-联通-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天-限量每天10000</t>
   </si>
 </sst>
 </file>
@@ -2673,43 +2700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2724,15 +2715,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2746,7 +2736,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2756,6 +2746,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2777,18 +2774,48 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2801,16 +2828,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2831,55 +2858,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2897,7 +2888,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2909,19 +2978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2933,31 +2996,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,49 +3032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3022,15 +3049,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3045,6 +3063,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3073,11 +3109,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3096,32 +3149,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3130,10 +3157,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3142,133 +3169,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3619,10 +3646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="E442" sqref="E442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8481,6 +8508,150 @@
         <v>878</v>
       </c>
     </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="str">
+        <f>LEFT(D451,FIND("-",D451)-1)</f>
+        <v>dt1416</v>
+      </c>
+      <c r="B451" s="1" t="str">
+        <f>RIGHT(D451,LEN(D451)-FIND("-",D451))</f>
+        <v>电信-比亚迪a-20190418-全国</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D451" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="str">
+        <f t="shared" ref="A452:A459" si="2">LEFT(D452,FIND("-",D452)-1)</f>
+        <v>dt1417</v>
+      </c>
+      <c r="B452" s="1" t="str">
+        <f t="shared" ref="B452:B459" si="3">RIGHT(D452,LEN(D452)-FIND("-",D452))</f>
+        <v>电信-比亚迪b-20190418-全国</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D452" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dt1418</v>
+      </c>
+      <c r="B453" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>电信-配资-20190418-V1-全国</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D453" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dt1419</v>
+      </c>
+      <c r="B454" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>电信-POS推广-20190418-优化(全国)-1天</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dt1420</v>
+      </c>
+      <c r="B455" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>电信-昌骏汽车-20190418-邢总(陕西省)-1天</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dt1421</v>
+      </c>
+      <c r="B456" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>电信-成人教育-20190418-王总优化(湖南)-3天</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D456" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dt1422</v>
+      </c>
+      <c r="B457" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D457" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dt1423</v>
+      </c>
+      <c r="B458" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>联通-POS-20190416-综合(全国)-1天-限量30000</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dt1424</v>
+      </c>
+      <c r="B459" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>联通-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天-限量每天10000</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D459" t="s">
+        <v>887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
